--- a/biology/Zoologie/Eider_de_Steller/Eider_de_Steller.xlsx
+++ b/biology/Zoologie/Eider_de_Steller/Eider_de_Steller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polysticta stelleri
 L'Eider de Steller (Polysticta stelleri) est une espèce de canards, des oiseaux ansériformes de la famille des anatidés. C'est la seule espèce du genre Polysticta. Il fait partie de la tribu Mergini qui regroupe les canards marins.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de l'espèce commémore le zoologiste allemand Georg Wilhelm Steller (1709-1746).
 </t>
